--- a/Part_Selection/Part Selection Calculation.xlsx
+++ b/Part_Selection/Part Selection Calculation.xlsx
@@ -7,12 +7,45 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="17175" windowHeight="25110"/>
   </bookViews>
   <sheets>
-    <sheet name="Timing_Belt" sheetId="1" r:id="rId1"/>
-    <sheet name="Driving_Multi_Pully_Belt" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Piston" sheetId="3" r:id="rId1"/>
+    <sheet name="Timing_Belt" sheetId="1" r:id="rId2"/>
+    <sheet name="Driving_Multi_Pully_Belt" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,14 +387,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>PI()*B2*B2/4</f>
+        <v>4071.5040790523717</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -371,7 +442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
